--- a/uploads/PRJ00006/files/TVTK/DS IP Phòng cầu 2.xlsx
+++ b/uploads/PRJ00006/files/TVTK/DS IP Phòng cầu 2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.70.8\Data_may_cu\Phạm Mạnh Huy\PC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HECO\PMH\PC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D6F09F-441A-40FB-8D5A-53452A04D6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5B6AC-685A-4815-8ED2-274AC76A49C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2085" windowWidth="29040" windowHeight="15720" xr2:uid="{0365D035-E2F3-448D-9BE8-9B25D7AE072C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0365D035-E2F3-448D-9BE8-9B25D7AE072C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$26</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -246,6 +247,9 @@
   </si>
   <si>
     <t>Synology</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -792,7 +796,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1250,4 +1254,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F18E87-4AD3-4DB5-8A96-8037BC6AFD59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>